--- a/比赛/数据统计(最大容量计算).xlsx
+++ b/比赛/数据统计(最大容量计算).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分数最大值(本地)" sheetId="2" r:id="rId1"/>
+    <sheet name="分数最大值(1)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
   <si>
     <t>Provider</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -456,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,4 +1084,638 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50.452331245650598</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2/C2</f>
+        <v>2.8740000000000037</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2*1000*6</f>
+        <v>17244.000000000022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2">
+        <v>38.517231392991597</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D31" si="0">B3/C3</f>
+        <v>3.4530000000000003</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E31" si="1">D3*1000*6</f>
+        <v>20718.000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37.454164484023003</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8180000000000045</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>22908.000000000029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.6438009558616</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5570000000000093</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>21342.000000000055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>48.496605237633297</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0620000000000029</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>12372.000000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>31.735956839098598</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.15100000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>18906.000000000058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41.572184429327201</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6460000000000052</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>15876.000000000033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42.467451952882797</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2260000000000022</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>19356.000000000015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>131</v>
+      </c>
+      <c r="C10" s="2">
+        <v>51.211884284597303</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.558000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>15348.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2">
+        <v>57.243505063848502</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2710000000000008</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>13626.000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>345</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42.372881355932201</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.1420000000000012</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>48852.000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>436</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45.7502623294858</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5300000000000065</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>57180.000000000044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>321</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30.7177033492822</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>10.450000000000033</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>62700.000000000196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>412</v>
+      </c>
+      <c r="C15" s="3">
+        <v>35.373916029878899</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>11.647000000000013</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>69882.000000000073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>440</v>
+      </c>
+      <c r="C16" s="3">
+        <v>73.986884143265499</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>5.947000000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>35682.000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>335</v>
+      </c>
+      <c r="C17" s="3">
+        <v>39.365452408930601</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>8.5100000000000158</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>51060.000000000102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>345</v>
+      </c>
+      <c r="C18" s="3">
+        <v>51.454138702460803</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7050000000000063</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>40230.000000000036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>334</v>
+      </c>
+      <c r="C19" s="3">
+        <v>37.642285585483997</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8730000000000135</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>53238.000000000073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>329</v>
+      </c>
+      <c r="C20" s="3">
+        <v>46.973158195316898</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0040000000000093</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>42024.000000000058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>356</v>
+      </c>
+      <c r="C21" s="3">
+        <v>48.461747890008098</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3460000000000107</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>44076.000000000065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>534</v>
+      </c>
+      <c r="C22" s="4">
+        <v>48.6161689730517</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>10.984000000000004</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>65904.000000000029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>455</v>
+      </c>
+      <c r="C23" s="4">
+        <v>37.863027377881302</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>12.01700000000001</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>72102.000000000058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>560</v>
+      </c>
+      <c r="C24" s="4">
+        <v>35.596236969234603</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>15.732000000000035</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>94392.000000000204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>503</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39.309159112222503</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>12.796000000000022</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>76776.000000000131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>484</v>
+      </c>
+      <c r="C26" s="4">
+        <v>69.231869546559807</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9910000000000059</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>41946.000000000029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>589</v>
+      </c>
+      <c r="C27" s="4">
+        <v>41.076783597182498</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>14.339000000000004</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>86034.000000000029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>569</v>
+      </c>
+      <c r="C28" s="4">
+        <v>58.969841434345497</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6490000000000045</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>57894.000000000022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>553</v>
+      </c>
+      <c r="C29" s="4">
+        <v>46.466683471977099</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>11.901000000000012</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>71406.000000000073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <v>564</v>
+      </c>
+      <c r="C30" s="4">
+        <v>49.309319811155703</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>11.438000000000022</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>68628.000000000131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>538</v>
+      </c>
+      <c r="C31" s="4">
+        <v>64.177502087558096</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>8.383000000000008</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>50298.000000000044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <f>AVERAGE(C2:C31)</f>
+        <v>45.750337941904291</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <f>SUM(E2:E31)</f>
+        <v>1368000.0000000019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>